--- a/00_additional_data/COS_chambers_sensor_logbook.xlsx
+++ b/00_additional_data/COS_chambers_sensor_logbook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="chambers" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>b_irr1</t>
   </si>
@@ -90,12 +90,6 @@
     <t>laserbox</t>
   </si>
   <si>
-    <t>other1</t>
-  </si>
-  <si>
-    <t>other2</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -118,6 +112,24 @@
   </si>
   <si>
     <t>start time or end time filled in only when swaped mid-day from soil to branch or from branch to soil respectively</t>
+  </si>
+  <si>
+    <t>chb_irr1</t>
+  </si>
+  <si>
+    <t>chb_con2</t>
+  </si>
+  <si>
+    <t>chs_irr3</t>
+  </si>
+  <si>
+    <t>chs_con4</t>
+  </si>
+  <si>
+    <t>chs_irr5</t>
+  </si>
+  <si>
+    <t>chs_con6</t>
   </si>
 </sst>
 </file>
@@ -475,21 +487,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -510,10 +522,10 @@
         <v>5</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
@@ -545,7 +557,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="4"/>
       <c r="L2" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -573,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -600,7 +612,7 @@
         <v>0.72083333333333333</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -662,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -677,22 +689,22 @@
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>8</v>
@@ -783,19 +795,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="9.62890625" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="12.578125" customWidth="1"/>
+    <col min="2" max="6" width="12.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -814,17 +826,11 @@
       <c r="F1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>44050</v>
       </c>
@@ -843,45 +849,33 @@
       <c r="F2" s="7">
         <v>6</v>
       </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" t="s">
+      <c r="G3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00_additional_data/COS_chambers_sensor_logbook.xlsx
+++ b/00_additional_data/COS_chambers_sensor_logbook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="chambers" sheetId="4" r:id="rId1"/>
@@ -674,7 +674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -901,22 +901,22 @@
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>8</v>

--- a/00_additional_data/COS_chambers_sensor_logbook.xlsx
+++ b/00_additional_data/COS_chambers_sensor_logbook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="chambers" sheetId="4" r:id="rId1"/>
@@ -37,25 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
-  <si>
-    <t>b_irr1</t>
-  </si>
-  <si>
-    <t>b_con2</t>
-  </si>
-  <si>
-    <t>s_irr3</t>
-  </si>
-  <si>
-    <t>s_con4</t>
-  </si>
-  <si>
-    <t>s_irr5</t>
-  </si>
-  <si>
-    <t>s_con6</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>4 is irrigation</t>
   </si>
@@ -487,48 +469,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
         <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -557,7 +539,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="4"/>
       <c r="L2" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -585,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -598,10 +580,18 @@
       <c r="C4" s="2">
         <v>12</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
       <c r="H4" s="4">
         <v>0</v>
       </c>
@@ -612,7 +602,7 @@
         <v>0.72083333333333333</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -675,7 +665,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -686,28 +676,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -733,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -759,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -771,7 +761,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -781,7 +771,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="6" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -809,25 +799,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -850,7 +840,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -860,7 +850,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -887,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -898,28 +888,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -945,19 +935,33 @@
         <v>0</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="A3" s="1">
+        <v>44573</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">

--- a/00_additional_data/COS_chambers_sensor_logbook.xlsx
+++ b/00_additional_data/COS_chambers_sensor_logbook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="chambers" sheetId="4" r:id="rId1"/>
@@ -37,13 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
-  <si>
-    <t>4 is irrigation</t>
-  </si>
-  <si>
-    <t>16 is control</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>comment</t>
   </si>
@@ -63,12 +57,6 @@
     <t>leaf.chb_irr1</t>
   </si>
   <si>
-    <t>leaf.chb_con2</t>
-  </si>
-  <si>
-    <t>air.chb_con2</t>
-  </si>
-  <si>
     <t>laserbox</t>
   </si>
   <si>
@@ -99,19 +87,25 @@
     <t>chb_irr1</t>
   </si>
   <si>
-    <t>chb_con2</t>
-  </si>
-  <si>
     <t>chs_irr3</t>
   </si>
   <si>
-    <t>chs_con4</t>
-  </si>
-  <si>
     <t>chs_irr5</t>
   </si>
   <si>
-    <t>chs_con6</t>
+    <t>chb_ctr2</t>
+  </si>
+  <si>
+    <t>chs_ctr4</t>
+  </si>
+  <si>
+    <t>chs_ctr6</t>
+  </si>
+  <si>
+    <t>leaf.chb_ctr2</t>
+  </si>
+  <si>
+    <t>air.chb_ctr2</t>
   </si>
 </sst>
 </file>
@@ -469,48 +463,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="L1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -539,7 +533,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="4"/>
       <c r="L2" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -567,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -602,7 +596,7 @@
         <v>0.72083333333333333</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -665,7 +659,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H4" sqref="H4:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -676,28 +670,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -723,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -749,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -760,9 +754,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
@@ -770,9 +762,7 @@
       <c r="C5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
@@ -787,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="G1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -799,25 +789,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -840,7 +830,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -850,7 +840,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -878,7 +868,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -888,28 +878,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -935,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -961,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">

--- a/00_additional_data/COS_chambers_sensor_logbook.xlsx
+++ b/00_additional_data/COS_chambers_sensor_logbook.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="chambers" sheetId="4" r:id="rId1"/>
     <sheet name="par" sheetId="1" r:id="rId2"/>
     <sheet name="tc" sheetId="2" r:id="rId3"/>
     <sheet name="flow" sheetId="3" r:id="rId4"/>
+    <sheet name="surf_area" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
   <si>
     <t>comment</t>
   </si>
@@ -106,14 +107,18 @@
   </si>
   <si>
     <t>air.chb_ctr2</t>
+  </si>
+  <si>
+    <t>Empty: when not measuring/working</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -153,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -181,6 +186,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -777,7 +788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -868,7 +879,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -975,4 +986,104 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="9.62890625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B2" s="11">
+        <v>8.1401694891633625E-2</v>
+      </c>
+      <c r="C2" s="11">
+        <v>7.7257159885427931E-2</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1">
+        <v>44257</v>
+      </c>
+      <c r="B3" s="11">
+        <v>4.0700847445816812E-2</v>
+      </c>
+      <c r="C3" s="11">
+        <v>7.7257159885427931E-2</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1">
+        <v>44426</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.1261546315077445</v>
+      </c>
+      <c r="C4" s="12">
+        <v>5.8204371316432538E-2</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1.7671458676442587E-2</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1.7671458676442587E-2</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>